--- a/Code/GEMs/bphD.xlsx
+++ b/Code/GEMs/bphD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Dokument\MATLAB\iGEM\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_F0B875FE03DEB864A98E01E8F0169A6647645065" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{752A4CC6-90C2-4BC4-8788-45824EA48B67}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="11_F0B875FE03DEB864A98E01E8F0169A6647645065" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{92745CD8-224E-4A20-9451-43CD2D127A2E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,37 +136,37 @@
     <t>ub</t>
   </si>
   <si>
-    <t>8-chloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-dienote[c] + H2O[c] &lt;=&gt; 2-hydroxypenta-2,4-enote[c] + 2-chlorobenzoate[c] + H+[c]</t>
-  </si>
-  <si>
-    <t>8,10-dichloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-dienote[c] + H2O[c] &lt;=&gt; 2-hydroxypenta-2,4-enote[c] + 2,4-dichlorobenzoate[c] + H+[c]</t>
-  </si>
-  <si>
-    <t>8,11-dichloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-dienote[c] + H2O[c] &lt;=&gt; 2-hydroxypenta-2,4-enote[c] + 2,5-dichlorobenzoate[c] + H+[c]</t>
-  </si>
-  <si>
-    <t>8,12-dichloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-dienote[c] + H2O[c] &lt;=&gt; 2-hydroxypenta-2,4-enote[c] + 2,6-dichlorobenzoate[c] + H+[c]</t>
-  </si>
-  <si>
-    <t>9-chloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-dienote[c] + H2O[c] &lt;=&gt; 2-hydroxypenta-2,4-enote[c] + 3-chlorobenzoate[c] + H+[c]</t>
-  </si>
-  <si>
-    <t>10-chloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-dienote[c] + H2O[c] &lt;=&gt; 2-hydroxypenta-2,4-enote[c] + 4-chlorobenzoate[c] + H+[c]</t>
-  </si>
-  <si>
-    <t>8,10,12-trichloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-dienote[c] + H2O[c] &lt;=&gt; 2-hydroxypenta-2,4-enote[c] + 2,4,6-trichlorobenzoate[c] + H+[c]</t>
-  </si>
-  <si>
-    <t>9,11-dichloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-dienote[c] + H2O[c] &lt;=&gt; 2-hydroxypenta-2,4-enote[c] + 3,5-dichlorobenzoate[c] + H+[c]</t>
-  </si>
-  <si>
-    <t>4,8,10-trichloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-enote[c] + H2O[c] &lt;=&gt; 4-chloro-2-hydroxypenta-2,4-enote[c] + 2,4-dichlorobenzoate[c] + H+[c]</t>
-  </si>
-  <si>
-    <t>4,8,11-trichloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-enote[c] + H2O[c] &lt;=&gt; 4-chloro-2-hydroxypenta-2,4-enote[c] + 2,5-dichlorobenzoate[c] + H+[c]</t>
-  </si>
-  <si>
-    <t>4,8,12-trichloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-enote[c] + H2O[c] &lt;=&gt; 4-chloro-2-hydroxypenta-2,4-enote[c] + 2,6-dichlorobenzoate[c] + H+[c]</t>
+    <t>4,8,10-trichloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-enote[c] + H2O[c] =&gt; 4-chloro-2-hydroxypenta-2,4-enote[c] + 2,4-dichlorobenzoate[c] + H+[c]</t>
+  </si>
+  <si>
+    <t>4,8,11-trichloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-enote[c] + H2O[c] =&gt; 4-chloro-2-hydroxypenta-2,4-enote[c] + 2,5-dichlorobenzoate[c] + H+[c]</t>
+  </si>
+  <si>
+    <t>4,8,12-trichloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-enote[c] + H2O[c] =&gt; 4-chloro-2-hydroxypenta-2,4-enote[c] + 2,6-dichlorobenzoate[c] + H+[c]</t>
+  </si>
+  <si>
+    <t>8-chloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-dienote[c] + H2O[c] =&gt; 2-hydroxypenta-2,4-enote[c] + 2-chlorobenzoate[c] + H+[c]</t>
+  </si>
+  <si>
+    <t>8,10-dichloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-dienote[c] + H2O[c] =&gt; 2-hydroxypenta-2,4-enote[c] + 2,4-dichlorobenzoate[c] + H+[c]</t>
+  </si>
+  <si>
+    <t>8,11-dichloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-dienote[c] + H2O[c] =&gt; 2-hydroxypenta-2,4-enote[c] + 2,5-dichlorobenzoate[c] + H+[c]</t>
+  </si>
+  <si>
+    <t>8,12-dichloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-dienote[c] + H2O[c] =&gt; 2-hydroxypenta-2,4-enote[c] + 2,6-dichlorobenzoate[c] + H+[c]</t>
+  </si>
+  <si>
+    <t>9-chloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-dienote[c] + H2O[c] =&gt; 2-hydroxypenta-2,4-enote[c] + 3-chlorobenzoate[c] + H+[c]</t>
+  </si>
+  <si>
+    <t>10-chloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-dienote[c] + H2O[c] =&gt; 2-hydroxypenta-2,4-enote[c] + 4-chlorobenzoate[c] + H+[c]</t>
+  </si>
+  <si>
+    <t>8,10,12-trichloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-dienote[c] + H2O[c] =&gt; 2-hydroxypenta-2,4-enote[c] + 2,4,6-trichlorobenzoate[c] + H+[c]</t>
+  </si>
+  <si>
+    <t>9,11-dichloro-2-hydroxy-6-oxo-6-phenylhexa-2,4-dienote[c] + H2O[c] =&gt; 2-hydroxypenta-2,4-enote[c] + 3,5-dichlorobenzoate[c] + H+[c]</t>
   </si>
 </sst>
 </file>
@@ -572,8 +572,8 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:K24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>5</v>
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>10</v>
@@ -692,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
@@ -724,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>14</v>
@@ -756,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>16</v>
@@ -788,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>18</v>
@@ -820,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>20</v>
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>22</v>
@@ -884,7 +884,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>24</v>
@@ -916,7 +916,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>26</v>
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>28</v>
